--- a/EDA/srch_id_8.xlsx
+++ b/EDA/srch_id_8.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c98b824bff33be6/MSc. Artificial Intelligence VU/MSc. AI Year 1/Data Mining Techniques/Assignment 2/dmt-2/EDA/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_371659DF6EAC51F9E2170B65BB315E925AC6386D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A74BB8-65DF-4CB1-96B3-A2C8ABE77876}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -190,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,14 +248,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -308,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,27 +326,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,24 +360,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,72 +535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55">
       <c r="A2" s="1">
         <v>65</v>
       </c>
@@ -849,10 +741,10 @@
         <v>1.39</v>
       </c>
       <c r="N2">
-        <v>3.2099999999999997E-2</v>
+        <v>0.0321</v>
       </c>
       <c r="O2">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="P2">
         <v>15</v>
@@ -915,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55">
       <c r="A3" s="1">
         <v>66</v>
       </c>
@@ -1019,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55">
       <c r="A4" s="1">
         <v>67</v>
       </c>
@@ -1054,10 +946,10 @@
         <v>2.83</v>
       </c>
       <c r="N4">
-        <v>0.22509999999999999</v>
+        <v>0.2251</v>
       </c>
       <c r="O4">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="P4">
         <v>10</v>
@@ -1135,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55">
       <c r="A5" s="1">
         <v>68</v>
       </c>
@@ -1236,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55">
       <c r="A6" s="1">
         <v>69</v>
       </c>
@@ -1271,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -1340,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55">
       <c r="A7" s="1">
         <v>70</v>
       </c>
@@ -1372,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>5.16E-2</v>
+        <v>0.0516</v>
       </c>
       <c r="O7">
         <v>5.18</v>
@@ -1432,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55">
       <c r="A8" s="1">
         <v>71</v>
       </c>
@@ -1467,10 +1359,10 @@
         <v>3.14</v>
       </c>
       <c r="N8">
-        <v>0.13930000000000001</v>
+        <v>0.1393</v>
       </c>
       <c r="O8">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="P8">
         <v>13</v>
@@ -1539,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55">
       <c r="A9" s="1">
         <v>72</v>
       </c>
@@ -1649,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55">
       <c r="A10" s="1">
         <v>73</v>
       </c>
@@ -1684,7 +1576,7 @@
         <v>1.61</v>
       </c>
       <c r="N10">
-        <v>8.1299999999999997E-2</v>
+        <v>0.0813</v>
       </c>
       <c r="O10">
         <v>4.55</v>
@@ -1720,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1756,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55">
       <c r="A11" s="1">
         <v>74</v>
       </c>
@@ -1791,10 +1683,10 @@
         <v>1.79</v>
       </c>
       <c r="N11">
-        <v>4.3200000000000002E-2</v>
+        <v>0.0432</v>
       </c>
       <c r="O11">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1866,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55">
       <c r="A12" s="1">
         <v>75</v>
       </c>
@@ -1901,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="P12">
         <v>22</v>
@@ -1970,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55">
       <c r="A13" s="1">
         <v>76</v>
       </c>
@@ -2050,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55">
       <c r="A14" s="1">
         <v>77</v>
       </c>
@@ -2154,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55">
       <c r="A15" s="1">
         <v>78</v>
       </c>
@@ -2243,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55">
       <c r="A16" s="1">
         <v>79</v>
       </c>
@@ -2278,7 +2170,7 @@
         <v>2.89</v>
       </c>
       <c r="N16">
-        <v>0.22950000000000001</v>
+        <v>0.2295</v>
       </c>
       <c r="O16">
         <v>5.39</v>
@@ -2347,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55">
       <c r="A17" s="1">
         <v>80</v>
       </c>
@@ -2382,7 +2274,7 @@
         <v>1.39</v>
       </c>
       <c r="N17">
-        <v>8.8300000000000003E-2</v>
+        <v>0.0883</v>
       </c>
       <c r="O17">
         <v>5.14</v>
@@ -2448,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55">
       <c r="A18" s="1">
         <v>81</v>
       </c>
@@ -2483,7 +2375,7 @@
         <v>2.94</v>
       </c>
       <c r="N18">
-        <v>7.3099999999999998E-2</v>
+        <v>0.0731</v>
       </c>
       <c r="O18">
         <v>5.12</v>
@@ -2540,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55">
       <c r="A19" s="1">
         <v>82</v>
       </c>
@@ -2575,7 +2467,7 @@
         <v>2.56</v>
       </c>
       <c r="N19">
-        <v>0.15920000000000001</v>
+        <v>0.1592</v>
       </c>
       <c r="O19">
         <v>5.7</v>
@@ -2611,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2623,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55">
       <c r="A20" s="1">
         <v>83</v>
       </c>
@@ -2691,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2721,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55">
       <c r="A21" s="1">
         <v>84</v>
       </c>
@@ -2828,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55">
       <c r="A22" s="1">
         <v>85</v>
       </c>
@@ -2863,7 +2755,7 @@
         <v>1.79</v>
       </c>
       <c r="N22">
-        <v>4.3400000000000001E-2</v>
+        <v>0.0434</v>
       </c>
       <c r="O22">
         <v>4.99</v>
